--- a/DarkGameProject/Assets/StreamingAssets/Excel/gameplayPatterns.xlsx
+++ b/DarkGameProject/Assets/StreamingAssets/Excel/gameplayPatterns.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kanjess/Desktop/MP_DarkGame/DarkGameProject/Assets/StreamingAssets/Excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC03945E-0DEE-0D42-BCF4-BBAA5A2B725D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7348E71C-A687-FF41-B6D6-6194989A1099}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16940" xr2:uid="{340A7935-8C9A-6041-96F0-1FEBE449ED49}"/>
   </bookViews>
@@ -541,7 +541,7 @@
   <dimension ref="A1:H20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:H20"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -635,8 +635,8 @@
       <c r="B4" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="C4">
-        <v>0</v>
+      <c r="C4" s="1">
+        <v>0.01</v>
       </c>
       <c r="D4">
         <v>0</v>
@@ -752,7 +752,7 @@
         <v>0</v>
       </c>
       <c r="G8">
-        <v>0</v>
+        <v>-5</v>
       </c>
       <c r="H8">
         <v>1</v>
@@ -778,7 +778,7 @@
         <v>0</v>
       </c>
       <c r="G9">
-        <v>0</v>
+        <v>-10</v>
       </c>
       <c r="H9">
         <v>1</v>
@@ -804,7 +804,7 @@
         <v>0</v>
       </c>
       <c r="G10">
-        <v>0</v>
+        <v>-5</v>
       </c>
       <c r="H10">
         <v>1</v>
@@ -830,7 +830,7 @@
         <v>0</v>
       </c>
       <c r="G11" s="1">
-        <v>-5</v>
+        <v>-10</v>
       </c>
       <c r="H11">
         <v>1</v>
@@ -856,7 +856,7 @@
         <v>0</v>
       </c>
       <c r="G12" s="1">
-        <v>-1</v>
+        <v>-5</v>
       </c>
       <c r="H12">
         <v>1</v>
@@ -882,7 +882,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0</v>
+        <v>-10</v>
       </c>
       <c r="H13">
         <v>1</v>
@@ -908,7 +908,7 @@
         <v>0</v>
       </c>
       <c r="G14" s="1">
-        <v>-2</v>
+        <v>-5</v>
       </c>
       <c r="H14">
         <v>1</v>
@@ -934,10 +934,10 @@
         <v>0</v>
       </c>
       <c r="G15">
-        <v>0</v>
+        <v>-5</v>
       </c>
       <c r="H15">
-        <v>1</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
@@ -960,7 +960,7 @@
         <v>0.5</v>
       </c>
       <c r="G16" s="1">
-        <v>-5</v>
+        <v>-10</v>
       </c>
       <c r="H16">
         <v>0.2</v>
@@ -986,7 +986,7 @@
         <v>0.5</v>
       </c>
       <c r="G17" s="1">
-        <v>-10</v>
+        <v>-15</v>
       </c>
       <c r="H17">
         <v>-1</v>
@@ -1038,7 +1038,7 @@
         <v>0.33</v>
       </c>
       <c r="G19" s="1">
-        <v>-5</v>
+        <v>-20</v>
       </c>
       <c r="H19">
         <v>0.33</v>

--- a/DarkGameProject/Assets/StreamingAssets/Excel/gameplayPatterns.xlsx
+++ b/DarkGameProject/Assets/StreamingAssets/Excel/gameplayPatterns.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kanjess/Desktop/MP_DarkGame/DarkGameProject/Assets/StreamingAssets/Excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7348E71C-A687-FF41-B6D6-6194989A1099}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78BDDD9D-6FA1-074A-A1FB-D64FDA80B4A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16940" xr2:uid="{340A7935-8C9A-6041-96F0-1FEBE449ED49}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="37">
   <si>
     <t>id</t>
   </si>
@@ -141,6 +141,12 @@
   </si>
   <si>
     <t>触发概率</t>
+  </si>
+  <si>
+    <t>desc</t>
+  </si>
+  <si>
+    <t>描述</t>
   </si>
 </sst>
 </file>
@@ -538,10 +544,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78EB35BC-A39D-C54F-A76E-5660B7A59046}">
-  <dimension ref="A1:H20"/>
+  <dimension ref="A1:I20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -550,7 +556,7 @@
     <col min="6" max="6" width="13" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -575,8 +581,11 @@
       <c r="H1" s="1" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="I1" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -601,8 +610,11 @@
       <c r="H2" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="I2" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>0</v>
       </c>
@@ -627,8 +639,11 @@
       <c r="H3" s="2" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I3" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>101</v>
       </c>
@@ -654,7 +669,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>102</v>
       </c>
@@ -680,7 +695,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>103</v>
       </c>
@@ -706,7 +721,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>104</v>
       </c>
@@ -732,7 +747,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" s="3">
         <v>431</v>
       </c>
@@ -758,7 +773,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" s="3">
         <v>433</v>
       </c>
@@ -784,7 +799,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" s="3">
         <v>432</v>
       </c>
@@ -810,7 +825,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" s="3">
         <v>421</v>
       </c>
@@ -836,7 +851,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" s="3">
         <v>411</v>
       </c>
@@ -862,7 +877,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" s="3">
         <v>412</v>
       </c>
@@ -888,7 +903,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" s="3">
         <v>402</v>
       </c>
@@ -914,7 +929,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15" s="3">
         <v>401</v>
       </c>
@@ -940,7 +955,7 @@
         <v>0.99</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16" s="3">
         <v>434</v>
       </c>

--- a/DarkGameProject/Assets/StreamingAssets/Excel/gameplayPatterns.xlsx
+++ b/DarkGameProject/Assets/StreamingAssets/Excel/gameplayPatterns.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kanjess/Desktop/MP_DarkGame/DarkGameProject/Assets/StreamingAssets/Excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78BDDD9D-6FA1-074A-A1FB-D64FDA80B4A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AE58436-2301-A249-B20C-2969132E0EF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16940" xr2:uid="{340A7935-8C9A-6041-96F0-1FEBE449ED49}"/>
   </bookViews>
@@ -203,13 +203,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -547,7 +545,7 @@
   <dimension ref="A1:I20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+      <selection activeCell="A3" sqref="A3:H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -647,7 +645,7 @@
       <c r="A4">
         <v>101</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" t="s">
         <v>28</v>
       </c>
       <c r="C4" s="1">
@@ -673,11 +671,11 @@
       <c r="A5">
         <v>102</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" t="s">
         <v>29</v>
       </c>
-      <c r="C5" s="4">
-        <v>0.02</v>
+      <c r="C5" s="1">
+        <v>0.01</v>
       </c>
       <c r="D5">
         <v>0</v>
@@ -699,7 +697,7 @@
       <c r="A6">
         <v>103</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B6" t="s">
         <v>30</v>
       </c>
       <c r="C6">
@@ -708,8 +706,8 @@
       <c r="D6">
         <v>0</v>
       </c>
-      <c r="E6" s="4">
-        <v>0.02</v>
+      <c r="E6" s="1">
+        <v>0.01</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -725,16 +723,16 @@
       <c r="A7">
         <v>104</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B7" t="s">
         <v>31</v>
       </c>
-      <c r="C7" s="4">
+      <c r="C7" s="1">
         <v>0.01</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
-      <c r="E7" s="4">
+      <c r="E7" s="1">
         <v>0.01</v>
       </c>
       <c r="F7">
@@ -755,7 +753,7 @@
         <v>16</v>
       </c>
       <c r="C8" s="1">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="D8">
         <v>0</v>
@@ -781,7 +779,7 @@
         <v>17</v>
       </c>
       <c r="C9" s="1">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
       <c r="D9">
         <v>0</v>
@@ -807,7 +805,7 @@
         <v>18</v>
       </c>
       <c r="C10" s="1">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
       <c r="D10">
         <v>0</v>
@@ -862,7 +860,7 @@
         <v>0</v>
       </c>
       <c r="D12" s="1">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
       <c r="E12" s="1">
         <v>0.05</v>
@@ -888,7 +886,7 @@
         <v>0</v>
       </c>
       <c r="D13" s="1">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -911,7 +909,7 @@
         <v>21</v>
       </c>
       <c r="C14" s="1">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
       <c r="D14">
         <v>0</v>
@@ -1015,7 +1013,7 @@
         <v>25</v>
       </c>
       <c r="C18" s="1">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
       <c r="D18">
         <v>0</v>
@@ -1067,7 +1065,7 @@
         <v>27</v>
       </c>
       <c r="C20" s="1">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
       <c r="D20">
         <v>0</v>
